--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>523</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.11</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>595</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>38.79</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -738,7 +738,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1090,37 +1090,37 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.54</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>33.25%</t>
+          <t>33.89%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>12.76%</t>
+          <t>12.42%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>38.79</t>
+          <t>38.56</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>3056</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>17.04</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>258</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>27.34</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>19.27</t>
+          <t>18.95</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>38.56</t>
+          <t>38.18</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,215 +461,200 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量</t>
+          <t>量能</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量_5均</t>
+          <t>短增量</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>量能</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>短增量</t>
+          <t>rt_price</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>now_price</t>
+          <t>diff_quote</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rt_price</t>
+          <t>盤後量</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>成交量</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>盤後量</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>成交量</t>
+          <t>貝他值</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>價能</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>貝他值</t>
+          <t>MA5_%</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>均價_%</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MA5_%</t>
+          <t>MACD_%</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>均價_%</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>MACD_%</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>LevelArea</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>LevelArea</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>營業毛利率</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>營業利益率</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>營業毛利率</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>營業利益率</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>短增level</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Typelevel</t>
+          <t>flag</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>短增level</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>flag</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -703,215 +688,200 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>79.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>79.06</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.59</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-1.61</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>築間</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>觀光事業</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>築間</t>
+          <t>55.7</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>觀光事業</t>
+          <t>31.08</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>13.84</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>45.30%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>31.08</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>45.30%</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>餐飲99.98%、其他營業收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>27.34</t>
+          <t>築間-觀光事業-上櫃</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>餐飲99.98%、其他營業收入0.02% (2024年)</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>築間-觀光事業-上櫃</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
-        <is>
-          <t>23.72</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -945,215 +915,200 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>46.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>46.73</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>38.8</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1779</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-3.84</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-1.61</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-106786954.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>永鴻生技</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-106786954.0</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>永鴻生技</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>33.89%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>12.42%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>18.95</t>
+          <t>38.49</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>33.89%</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>12.42%</t>
+          <t>動物用藥與保健品,飼料添加99.92%、勞務0.08% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>38.18</t>
+          <t>永鴻生技-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>動物用藥與保健品,飼料添加99.92%、勞務0.08% (2024年)</t>
+          <t>17.57</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>永鴻生技-生技醫療業-上市</t>
+          <t>短增右下</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
-        <is>
-          <t>17.57</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -708,17 +708,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>427</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>55.7</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>13.84</t>
+          <t>21.39</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>25.1</t>
+          <t>25.23</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>576</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>18.26</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>38.49</t>
+          <t>30.11</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-106786954.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -708,22 +708,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-3.18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>258</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -818,37 +818,37 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>31.08</t>
+          <t>29.22</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>45.30%</t>
+          <t>46.32%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>1.10%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>25.23</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2703</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>23.72</t>
+          <t>21.84</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>483</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>18.26</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>30.11</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -935,17 +935,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>312</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>18.65</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>32.16</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -803,85 +813,95 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>築間</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>29.22</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>21.19</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>46.32%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>1.10%</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>27.65</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>2703</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>餐飲99.98%、其他營業收入0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>築間-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>觀光事業右下</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>21.84</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1030,85 +1050,95 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>永鴻生技</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>4.62</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>5.14</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>18.37</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>33.89%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>12.42%</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>32.16</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>2914</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>動物用藥與保健品,飼料添加99.92%、勞務0.08% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>永鴻生技-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>生技醫療業平</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>17.57</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/Result/checkall/2025-04-30.xlsx
+++ b/Result/checkall/2025-04-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,85 +586,90 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Volume_%</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -718,17 +723,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>-6.37</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>183</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,7 +748,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -813,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -823,85 +828,90 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>築間</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>51.7</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>29.22</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
       <c r="AK2" t="inlineStr">
         <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
           <t>46.32%</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>1.10%</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>2703</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
           <t>餐飲99.98%、其他營業收入0.02% (2024年)</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>築間-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>觀光事業右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>21.84</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -955,17 +965,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>272</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -980,7 +990,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,85 +1070,90 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>永鴻生技</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>5.14</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>18.37</t>
-        </is>
-      </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>33.89%</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>12.42%</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>32.16</t>
-        </is>
-      </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2914</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
           <t>動物用藥與保健品,飼料添加99.92%、勞務0.08% (2024年)</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>永鴻生技-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>生技醫療業平</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>17.57</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
